--- a/produtos_hccp_master.xlsx
+++ b/produtos_hccp_master.xlsx
@@ -454,6 +454,9 @@
     <t xml:space="preserve">Filetes de Dourada</t>
   </si>
   <si>
+    <t xml:space="preserve">36 horas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filetes de Robalo</t>
   </si>
   <si>
@@ -461,9 +464,6 @@
   </si>
   <si>
     <t xml:space="preserve">Filete de Corvina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 horas</t>
   </si>
   <si>
     <t xml:space="preserve">Filete de Peixe Espada Preto</t>
@@ -848,11 +848,14 @@
   </sheetPr>
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D90" activeCellId="0" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.72"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2128,7 +2131,7 @@
         <v>40</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -2139,13 +2142,13 @@
         <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -2156,13 +2159,13 @@
         <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -2173,13 +2176,13 @@
         <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -2196,7 +2199,7 @@
         <v>40</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -2213,7 +2216,7 @@
         <v>40</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -2315,7 +2318,7 @@
         <v>127</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>8</v>
@@ -2485,7 +2488,7 @@
         <v>119</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
@@ -2621,7 +2624,7 @@
         <v>56</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
